--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2291.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2291.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.144393493886204</v>
+        <v>1.178289532661438</v>
       </c>
       <c r="B1">
-        <v>3.746313320871266</v>
+        <v>2.375503063201904</v>
       </c>
       <c r="C1">
-        <v>3.418578977585995</v>
+        <v>3.529220819473267</v>
       </c>
       <c r="D1">
-        <v>3.751165790503234</v>
+        <v>1.834197759628296</v>
       </c>
       <c r="E1">
-        <v>1.445319724949132</v>
+        <v>1.208972692489624</v>
       </c>
     </row>
   </sheetData>
